--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H2">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I2">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J2">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N2">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O2">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P2">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q2">
-        <v>14.68894202699094</v>
+        <v>1.344586657723333</v>
       </c>
       <c r="R2">
-        <v>14.68894202699094</v>
+        <v>12.10127991951</v>
       </c>
       <c r="S2">
-        <v>0.05166876342809269</v>
+        <v>0.003703709696279461</v>
       </c>
       <c r="T2">
-        <v>0.05166876342809269</v>
+        <v>0.004565516426224701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H3">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I3">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J3">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N3">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P3">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q3">
-        <v>91.66201523473066</v>
+        <v>6.059387425910001</v>
       </c>
       <c r="R3">
-        <v>91.66201523473066</v>
+        <v>54.53448683319</v>
       </c>
       <c r="S3">
-        <v>0.3224236961248133</v>
+        <v>0.01669078882640117</v>
       </c>
       <c r="T3">
-        <v>0.3224236961248133</v>
+        <v>0.02057452575997805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H4">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I4">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J4">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N4">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O4">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P4">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q4">
-        <v>10.99441609468257</v>
+        <v>0.7490529778400001</v>
       </c>
       <c r="R4">
-        <v>10.99441609468257</v>
+        <v>6.741476800560001</v>
       </c>
       <c r="S4">
-        <v>0.03867316537721663</v>
+        <v>0.002063291912884544</v>
       </c>
       <c r="T4">
-        <v>0.03867316537721663</v>
+        <v>0.002543394027300187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H5">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I5">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J5">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N5">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O5">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P5">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q5">
-        <v>15.488902681024</v>
+        <v>1.35952109402</v>
       </c>
       <c r="R5">
-        <v>15.488902681024</v>
+        <v>12.23568984618</v>
       </c>
       <c r="S5">
-        <v>0.05448264734900864</v>
+        <v>0.003744847109180827</v>
       </c>
       <c r="T5">
-        <v>0.05448264734900864</v>
+        <v>0.004616225998446909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H6">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I6">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J6">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.85177465841194</v>
+        <v>7.328590999999999</v>
       </c>
       <c r="N6">
-        <v>6.85177465841194</v>
+        <v>14.657182</v>
       </c>
       <c r="O6">
-        <v>0.3616669644907623</v>
+        <v>0.3505477448773717</v>
       </c>
       <c r="P6">
-        <v>0.3616669644907623</v>
+        <v>0.2646190314995103</v>
       </c>
       <c r="Q6">
-        <v>75.26129265181891</v>
+        <v>5.13448414051</v>
       </c>
       <c r="R6">
-        <v>75.26129265181891</v>
+        <v>30.80690484306</v>
       </c>
       <c r="S6">
-        <v>0.2647336968294837</v>
+        <v>0.01414311125829491</v>
       </c>
       <c r="T6">
-        <v>0.2647336968294837</v>
+        <v>0.01162269041272015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H7">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J7">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.33727866202131</v>
+        <v>1.919165666666667</v>
       </c>
       <c r="N7">
-        <v>1.33727866202131</v>
+        <v>5.757497</v>
       </c>
       <c r="O7">
-        <v>0.07058748112472403</v>
+        <v>0.09179925534063474</v>
       </c>
       <c r="P7">
-        <v>0.07058748112472403</v>
+        <v>0.1039451703609422</v>
       </c>
       <c r="Q7">
-        <v>5.378412972038174</v>
+        <v>22.77207772327555</v>
       </c>
       <c r="R7">
-        <v>5.378412972038174</v>
+        <v>204.94869950948</v>
       </c>
       <c r="S7">
-        <v>0.01891871769663134</v>
+        <v>0.06272646287516523</v>
       </c>
       <c r="T7">
-        <v>0.01891871769663134</v>
+        <v>0.07732212297935251</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H8">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J8">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.344893516908231</v>
+        <v>8.648731</v>
       </c>
       <c r="N8">
-        <v>8.344893516908231</v>
+        <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.440480380298781</v>
+        <v>0.4136938666792861</v>
       </c>
       <c r="P8">
-        <v>0.440480380298781</v>
+        <v>0.4684295018482661</v>
       </c>
       <c r="Q8">
-        <v>33.56240162673087</v>
+        <v>102.6224978700133</v>
       </c>
       <c r="R8">
-        <v>33.56240162673087</v>
+        <v>923.60248083012</v>
       </c>
       <c r="S8">
-        <v>0.1180566841739677</v>
+        <v>0.2826771619622854</v>
       </c>
       <c r="T8">
-        <v>0.1180566841739677</v>
+        <v>0.3484525872947942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H9">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J9">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.00092968014896</v>
+        <v>1.069144</v>
       </c>
       <c r="N9">
-        <v>1.00092968014896</v>
+        <v>3.207432</v>
       </c>
       <c r="O9">
-        <v>0.05283349455221091</v>
+        <v>0.05114025576665047</v>
       </c>
       <c r="P9">
-        <v>0.05283349455221091</v>
+        <v>0.05790659824245461</v>
       </c>
       <c r="Q9">
-        <v>4.025648003441635</v>
+        <v>12.68604930165334</v>
       </c>
       <c r="R9">
-        <v>4.025648003441635</v>
+        <v>114.17444371488</v>
       </c>
       <c r="S9">
-        <v>0.01416032917499428</v>
+        <v>0.03494415442554586</v>
       </c>
       <c r="T9">
-        <v>0.01416032917499428</v>
+        <v>0.04307522028268718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H10">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J10">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41010693727281</v>
+        <v>1.940482</v>
       </c>
       <c r="N10">
-        <v>1.41010693727281</v>
+        <v>5.821446</v>
       </c>
       <c r="O10">
-        <v>0.07443167953352174</v>
+        <v>0.09281887733605711</v>
       </c>
       <c r="P10">
-        <v>0.07443167953352174</v>
+        <v>0.1050996980488267</v>
       </c>
       <c r="Q10">
-        <v>5.671321661504418</v>
+        <v>23.02500909229333</v>
       </c>
       <c r="R10">
-        <v>5.671321661504418</v>
+        <v>207.22508183064</v>
       </c>
       <c r="S10">
-        <v>0.0199490321845131</v>
+        <v>0.06342317093674199</v>
       </c>
       <c r="T10">
-        <v>0.0199490321845131</v>
+        <v>0.07818094625662154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H11">
+        <v>35.59684</v>
+      </c>
+      <c r="I11">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J11">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N11">
+        <v>14.657182</v>
+      </c>
+      <c r="O11">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P11">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q11">
+        <v>86.95822708414667</v>
+      </c>
+      <c r="R11">
+        <v>521.74936250488</v>
+      </c>
+      <c r="S11">
+        <v>0.2395293951288746</v>
+      </c>
+      <c r="T11">
+        <v>0.196843251352932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.371554</v>
+      </c>
+      <c r="I12">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J12">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.919165666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.757497</v>
+      </c>
+      <c r="O12">
+        <v>0.09179925534063474</v>
+      </c>
+      <c r="P12">
+        <v>0.1039451703609422</v>
+      </c>
+      <c r="Q12">
+        <v>0.877413115593111</v>
+      </c>
+      <c r="R12">
+        <v>7.896718040338</v>
+      </c>
+      <c r="S12">
+        <v>0.002416864279590108</v>
+      </c>
+      <c r="T12">
+        <v>0.002979238243080645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.371554</v>
+      </c>
+      <c r="I13">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J13">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.648731</v>
+      </c>
+      <c r="N13">
+        <v>25.946193</v>
+      </c>
+      <c r="O13">
+        <v>0.4136938666792861</v>
+      </c>
+      <c r="P13">
+        <v>0.4684295018482661</v>
+      </c>
+      <c r="Q13">
+        <v>3.954067199324666</v>
+      </c>
+      <c r="R13">
+        <v>35.586604793922</v>
+      </c>
+      <c r="S13">
+        <v>0.01089161263185216</v>
+      </c>
+      <c r="T13">
+        <v>0.01342595409914262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.371554</v>
+      </c>
+      <c r="I14">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J14">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.069144</v>
+      </c>
+      <c r="N14">
+        <v>3.207432</v>
+      </c>
+      <c r="O14">
+        <v>0.05114025576665047</v>
+      </c>
+      <c r="P14">
+        <v>0.05790659824245461</v>
+      </c>
+      <c r="Q14">
+        <v>0.4887962432586667</v>
+      </c>
+      <c r="R14">
+        <v>4.399166189328001</v>
+      </c>
+      <c r="S14">
+        <v>0.001346405882628208</v>
+      </c>
+      <c r="T14">
+        <v>0.001659697621463049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.371554</v>
+      </c>
+      <c r="I15">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J15">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.940482</v>
+      </c>
+      <c r="N15">
+        <v>5.821446</v>
+      </c>
+      <c r="O15">
+        <v>0.09281887733605711</v>
+      </c>
+      <c r="P15">
+        <v>0.1050996980488267</v>
+      </c>
+      <c r="Q15">
+        <v>0.8871586163426666</v>
+      </c>
+      <c r="R15">
+        <v>7.984427547084</v>
+      </c>
+      <c r="S15">
+        <v>0.002443708592981068</v>
+      </c>
+      <c r="T15">
+        <v>0.003012328891049158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.371554</v>
+      </c>
+      <c r="I16">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J16">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N16">
+        <v>14.657182</v>
+      </c>
+      <c r="O16">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P16">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q16">
+        <v>3.350519433471333</v>
+      </c>
+      <c r="R16">
+        <v>20.103116600828</v>
+      </c>
+      <c r="S16">
+        <v>0.009229119775985409</v>
+      </c>
+      <c r="T16">
+        <v>0.007584413357087857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.298806</v>
+      </c>
+      <c r="I17">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J17">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.919165666666667</v>
+      </c>
+      <c r="N17">
+        <v>5.757497</v>
+      </c>
+      <c r="O17">
+        <v>0.09179925534063474</v>
+      </c>
+      <c r="P17">
+        <v>0.1039451703609422</v>
+      </c>
+      <c r="Q17">
+        <v>0.1911527387313333</v>
+      </c>
+      <c r="R17">
+        <v>1.720374648582</v>
+      </c>
+      <c r="S17">
+        <v>0.0005265367225258372</v>
+      </c>
+      <c r="T17">
+        <v>0.0006490552048712304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="H11">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="I11">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="J11">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.85177465841194</v>
-      </c>
-      <c r="N11">
-        <v>6.85177465841194</v>
-      </c>
-      <c r="O11">
-        <v>0.3616669644907623</v>
-      </c>
-      <c r="P11">
-        <v>0.3616669644907623</v>
-      </c>
-      <c r="Q11">
-        <v>27.55721357924274</v>
-      </c>
-      <c r="R11">
-        <v>27.55721357924274</v>
-      </c>
-      <c r="S11">
-        <v>0.09693326766127856</v>
-      </c>
-      <c r="T11">
-        <v>0.09693326766127856</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.298806</v>
+      </c>
+      <c r="I18">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J18">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.648731</v>
+      </c>
+      <c r="N18">
+        <v>25.946193</v>
+      </c>
+      <c r="O18">
+        <v>0.4136938666792861</v>
+      </c>
+      <c r="P18">
+        <v>0.4684295018482661</v>
+      </c>
+      <c r="Q18">
+        <v>0.861430905062</v>
+      </c>
+      <c r="R18">
+        <v>7.752878145558001</v>
+      </c>
+      <c r="S18">
+        <v>0.002372840736910991</v>
+      </c>
+      <c r="T18">
+        <v>0.002924970974929467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.298806</v>
+      </c>
+      <c r="I19">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J19">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.069144</v>
+      </c>
+      <c r="N19">
+        <v>3.207432</v>
+      </c>
+      <c r="O19">
+        <v>0.05114025576665047</v>
+      </c>
+      <c r="P19">
+        <v>0.05790659824245461</v>
+      </c>
+      <c r="Q19">
+        <v>0.106488880688</v>
+      </c>
+      <c r="R19">
+        <v>0.9583999261920001</v>
+      </c>
+      <c r="S19">
+        <v>0.0002933272449824101</v>
+      </c>
+      <c r="T19">
+        <v>0.0003615808108750279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.298806</v>
+      </c>
+      <c r="I20">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J20">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.940482</v>
+      </c>
+      <c r="N20">
+        <v>5.821446</v>
+      </c>
+      <c r="O20">
+        <v>0.09281887733605711</v>
+      </c>
+      <c r="P20">
+        <v>0.1050996980488267</v>
+      </c>
+      <c r="Q20">
+        <v>0.193275888164</v>
+      </c>
+      <c r="R20">
+        <v>1.739482993476</v>
+      </c>
+      <c r="S20">
+        <v>0.0005323850098751498</v>
+      </c>
+      <c r="T20">
+        <v>0.0006562643152357361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.298806</v>
+      </c>
+      <c r="I21">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J21">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N21">
+        <v>14.657182</v>
+      </c>
+      <c r="O21">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P21">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q21">
+        <v>0.7299423207820001</v>
+      </c>
+      <c r="R21">
+        <v>4.379653924692</v>
+      </c>
+      <c r="S21">
+        <v>0.002010650957806325</v>
+      </c>
+      <c r="T21">
+        <v>0.001652336122076123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.2421405</v>
+      </c>
+      <c r="H22">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J22">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.919165666666667</v>
+      </c>
+      <c r="N22">
+        <v>5.757497</v>
+      </c>
+      <c r="O22">
+        <v>0.09179925534063474</v>
+      </c>
+      <c r="P22">
+        <v>0.1039451703609422</v>
+      </c>
+      <c r="Q22">
+        <v>8.141370400776166</v>
+      </c>
+      <c r="R22">
+        <v>48.84822240465699</v>
+      </c>
+      <c r="S22">
+        <v>0.02242568176707412</v>
+      </c>
+      <c r="T22">
+        <v>0.01842923750741313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.2421405</v>
+      </c>
+      <c r="H23">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J23">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.648731</v>
+      </c>
+      <c r="N23">
+        <v>25.946193</v>
+      </c>
+      <c r="O23">
+        <v>0.4136938666792861</v>
+      </c>
+      <c r="P23">
+        <v>0.4684295018482661</v>
+      </c>
+      <c r="Q23">
+        <v>36.6891320487055</v>
+      </c>
+      <c r="R23">
+        <v>220.134792292233</v>
+      </c>
+      <c r="S23">
+        <v>0.1010614625218365</v>
+      </c>
+      <c r="T23">
+        <v>0.08305146371942181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.2421405</v>
+      </c>
+      <c r="H24">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J24">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.069144</v>
+      </c>
+      <c r="N24">
+        <v>3.207432</v>
+      </c>
+      <c r="O24">
+        <v>0.05114025576665047</v>
+      </c>
+      <c r="P24">
+        <v>0.05790659824245461</v>
+      </c>
+      <c r="Q24">
+        <v>4.535459062732</v>
+      </c>
+      <c r="R24">
+        <v>27.212754376392</v>
+      </c>
+      <c r="S24">
+        <v>0.01249307630060946</v>
+      </c>
+      <c r="T24">
+        <v>0.01026670550012915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.2421405</v>
+      </c>
+      <c r="H25">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J25">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.940482</v>
+      </c>
+      <c r="N25">
+        <v>5.821446</v>
+      </c>
+      <c r="O25">
+        <v>0.09281887733605711</v>
+      </c>
+      <c r="P25">
+        <v>0.1050996980488267</v>
+      </c>
+      <c r="Q25">
+        <v>8.231797281720999</v>
+      </c>
+      <c r="R25">
+        <v>49.390783690326</v>
+      </c>
+      <c r="S25">
+        <v>0.02267476568727809</v>
+      </c>
+      <c r="T25">
+        <v>0.01863393258747336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.2421405</v>
+      </c>
+      <c r="H26">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J26">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.328590999999999</v>
+      </c>
+      <c r="N26">
+        <v>14.657182</v>
+      </c>
+      <c r="O26">
+        <v>0.3505477448773717</v>
+      </c>
+      <c r="P26">
+        <v>0.2646190314995103</v>
+      </c>
+      <c r="Q26">
+        <v>31.0889126890355</v>
+      </c>
+      <c r="R26">
+        <v>124.355650756142</v>
+      </c>
+      <c r="S26">
+        <v>0.08563546775641052</v>
+      </c>
+      <c r="T26">
+        <v>0.0469163402546941</v>
       </c>
     </row>
   </sheetData>
